--- a/groups/old/codeforces_results.xlsx
+++ b/groups/old/codeforces_results.xlsx
@@ -22,7 +22,7 @@
     <t>№</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Хендл</t>
   </si>
   <si>
     <t>Рейтинг</t>
